--- a/EM_SPT/wwwroot/file/Formir_MO.xlsx
+++ b/EM_SPT/wwwroot/file/Formir_MO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kravchenko_v_e.IRO\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kravchenko_v_e.IRO\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -32,10 +32,10 @@
     <t>Количество ОО</t>
   </si>
   <si>
-    <t>Макс. кол. классов в ОО</t>
+    <t>Количество СПО</t>
   </si>
   <si>
-    <t>Макс. кол. учеников в классе</t>
+    <t>Количество ВУЗ</t>
   </si>
 </sst>
 </file>
@@ -357,7 +357,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
